--- a/Self Assessment Form - IUM-TWEB.xlsx
+++ b/Self Assessment Form - IUM-TWEB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/Teaching/Teaching Torino/IUM+TWEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e.munafo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{299F4140-91EA-4C3A-84F4-E25DA9C1564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516C357C-AAB9-CE4A-94A9-FA2BB87295E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="500" windowWidth="38180" windowHeight="19720" xr2:uid="{9384817B-0988-A24F-9D66-74DAD74AC274}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{9384817B-0988-A24F-9D66-74DAD74AC274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,11 +65,6 @@
     <t>Github repo URL(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/clark1492/IUM_TWEB_FE 
-https://github.com/clark1492/IUM_TWEB_BE_DataPos 
-https://github.com/clark1492/IUM_TWEB_BE_MainServer </t>
-  </si>
-  <si>
     <t>Hav you given access to the lecturer and lab assistant (Giulia)?</t>
   </si>
   <si>
@@ -252,12 +247,17 @@
   <si>
     <t xml:space="preserve">Percentage: do you think that all members shohave done an equal amount of work? If so, write 33.3% on this row </t>
   </si>
+  <si>
+    <t xml:space="preserve">https://github.com/clark1492/Esposito https://github.com/clark1492/IUM_TWEB_FE 
+https://github.com/clark1492/IUM_TWEB_BE_DataPos 
+https://github.com/clark1492/IUM_TWEB_BE_MainServer </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,7 +555,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Default 1" xfId="1" xr:uid="{4CFB9B37-B9E9-0348-B0C6-CB853B61E7A3}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,9 +571,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -611,7 +611,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -717,7 +717,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -859,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,19 +870,19 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="30" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="139.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" ht="95.1" customHeight="1">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="18">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -917,488 +917,488 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="26"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18.95">
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="27"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="18.95">
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="27"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="95.25">
+    <row r="11" spans="1:5" ht="144" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="120">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="13" customFormat="1">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" ht="108">
-      <c r="B14" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36">
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="54">
-      <c r="B16" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="54">
-      <c r="B21" s="36" t="s">
-        <v>22</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="36">
-      <c r="B23" s="26" t="s">
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="B24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="36">
-      <c r="B24" s="30" t="s">
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18">
-      <c r="B25" s="26" t="s">
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18">
-      <c r="B26" s="26" t="s">
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.6">
-      <c r="B27" s="31" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="18">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36">
+    <row r="30" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="36">
+    <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="36">
+    <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72">
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36">
+    <row r="34" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36">
+    <row r="35" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18">
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="409.6">
+    <row r="38" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="18" t="s">
+      <c r="B42" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>40</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="48.95">
+    <row r="43" spans="1:4" ht="49" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18">
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="142.5">
+    <row r="46" spans="1:4" ht="162" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="B48" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36">
+    <row r="49" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="36">
+    <row r="50" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B50" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="36">
+    <row r="51" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="36">
+    <row r="52" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18">
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="409.6">
+    <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="18" t="s">
+      <c r="B56" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="48.95">
+    <row r="57" spans="1:4" ht="49" x14ac:dyDescent="0.25">
       <c r="B57" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B58" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B59" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="158.25">
+    <row r="60" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="B65" s="30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="54">
-      <c r="B65" s="30" t="s">
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="B66" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="54">
-      <c r="B66" s="30" t="s">
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B67" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="18">
-      <c r="B67" s="30" t="s">
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="198" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="174">
-      <c r="B68" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="21" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="54">
+    <row r="71" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
         <v>56</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.95">
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
     </row>
-    <row r="74" spans="1:4" ht="15.95">
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" s="34" t="s">
         <v>4</v>
       </c>
@@ -1409,41 +1409,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="48.95">
+    <row r="75" spans="1:4" ht="49" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="81">
+    <row r="76" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
     </row>
   </sheetData>
